--- a/biology/Médecine/St_Mary's_Hospital/St_Mary's_Hospital.xlsx
+++ b/biology/Médecine/St_Mary's_Hospital/St_Mary's_Hospital.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St_Mary%27s_Hospital</t>
+          <t>St_Mary's_Hospital</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le St Mary's Hospital est un important établissement de soins britannique, situé à Londres, dans le quartier de Paddington (borough de la cité de Westminster). Jusqu'au début du XXe siècle, l'hôpital possède sa propre école de médecine, laquelle fusionne ensuite avec celle de l'Imperial College London. L'hôpital est aujourd'hui géré par l'Imperial College Healthcare NHS trust.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St_Mary%27s_Hospital</t>
+          <t>St_Mary's_Hospital</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Chercheurs et découvertes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Alexander Fleming découvre la pénicilline dans cet hôpital en 1928.
 Almroth Wright, patron de Fleming, y fit faire d'importants progrès à la vaccination par l'usage des vaccins autogènes.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>St_Mary%27s_Hospital</t>
+          <t>St_Mary's_Hospital</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,13 +563,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Célébrités
-Elvis Costello, auteur-compositeur-interprète (1954)
+          <t>Célébrités</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elvis Costello, auteur-compositeur-interprète (1954)
 Seal, auteur-compositeur-interprète (1963)
 Kiefer Sutherland, acteur et chanteur (1966)
-Louis Spencer, vicomte Althorp et héritier de la famille Spencer (1994)
-Membres de la famille royale britannique
-Alexander Windsor, comte d'Ulster, fils du prince Richard de Gloucester (1974)
+Louis Spencer, vicomte Althorp et héritier de la famille Spencer (1994)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>St_Mary's_Hospital</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St_Mary%27s_Hospital</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités nées au St Mary's Hospital</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Membres de la famille royale britannique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alexander Windsor, comte d'Ulster, fils du prince Richard de Gloucester (1974)
 Peter Phillips, fils de la princesse Anne (1977)
 Lady Davina Windsor, fille aînée du prince Richard de Gloucester (1977)
 Lord Frederick Windsor, fils du prince Michael de Kent (1979)
@@ -567,38 +620,74 @@
 Edward Windsor, baron Downpatrick, fils de George Windsor (1988)
 Le prince George de Galles, fils aîné du prince William, prince de Galles, et de Catherine Middleton (2013)
 La princesse Charlotte de Galles, fille du prince William, prince de Galles, et de Catherine Middleton (2015)
-Le prince Louis de Galles, fils cadet du prince William, prince de Galles, et de Catherine Middleton (2018)
-Membres d'autres familles royales
-La princesse Théodora de Grèce, fille de l'ex-roi Constantin II et de l'ex-reine Anne-Marie de Grèce (1983)
+Le prince Louis de Galles, fils cadet du prince William, prince de Galles, et de Catherine Middleton (2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>St_Mary's_Hospital</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St_Mary%27s_Hospital</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités nées au St Mary's Hospital</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Membres d'autres familles royales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La princesse Théodora de Grèce, fille de l'ex-roi Constantin II et de l'ex-reine Anne-Marie de Grèce (1983)
 Le prince Phílippos de Grèce, fils de l'ex-roi Constantin II et de l'ex-reine Anne-Marie de Grèce (1986)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>St_Mary%27s_Hospital</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>St_Mary's_Hospital</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/St_Mary%27s_Hospital</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Le musée-laboratoire Alexander-Fleming</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le laboratoire où eut lieu la découverte de la pénicilline a été reconstitué tel qu'il était en 1928 et intégré dans un musée consacré à la découverte à la vie et aux travaux de Fleming. Les horaires de visites sont restreints.
 </t>
